--- a/public/template/modelTable.xlsx
+++ b/public/template/modelTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Temp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\projets\Github\invitation\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBDA6EF9-4318-45AB-B21C-97E4312A1F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C18282-51EE-49FF-AAB2-7A5CF2658619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F03B92A-22B1-47B5-8613-59E7BD2AEDC3}"/>
   </bookViews>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>titre</t>
+    <t>description</t>
   </si>
   <si>
-    <t>description</t>
+    <t>nom</t>
   </si>
 </sst>
 </file>
@@ -399,18 +399,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65DF6F1-0D35-4786-AF54-201D3534AFCC}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
